--- a/javsdt/【特征对照表】.xlsx
+++ b/javsdt/【特征对照表】.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18528" windowHeight="11760" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="17190"/>
   </bookViews>
   <sheets>
     <sheet name="Javlibrary" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4115" uniqueCount="1353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4121" uniqueCount="1354">
   <si>
     <t>原简体特征</t>
   </si>
@@ -1731,6 +1731,9 @@
   </si>
   <si>
     <t>天赋</t>
+  </si>
+  <si>
+    <t>高画质</t>
   </si>
   <si>
     <t>折磨</t>
@@ -4084,19 +4087,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4113,91 +4109,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4218,17 +4130,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4242,8 +4159,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4258,13 +4254,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4276,85 +4374,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4372,13 +4392,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4390,55 +4428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4454,10 +4450,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4478,29 +4472,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4520,6 +4502,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4535,170 +4537,167 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5048,13 +5047,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D325"/>
+  <dimension ref="A1:D326"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B294" sqref="B294"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="A326" sqref="A326"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -8631,6 +8630,17 @@
         <v>543</v>
       </c>
       <c r="C325" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C326" s="1" t="s">
         <v>543</v>
       </c>
     </row>
@@ -8645,11 +8655,11 @@
   <sheetPr/>
   <dimension ref="A1:D334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+    <sheetView topLeftCell="A358" workbookViewId="0">
       <selection activeCell="B270" sqref="B270"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -8689,13 +8699,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8766,13 +8776,13 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8799,7 +8809,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>81</v>
@@ -8832,7 +8842,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>29</v>
@@ -8843,7 +8853,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
@@ -8876,7 +8886,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>78</v>
@@ -8887,35 +8897,35 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -8942,13 +8952,13 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8997,13 +9007,13 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -9052,7 +9062,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>37</v>
@@ -9063,7 +9073,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>138</v>
@@ -9074,18 +9084,18 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>61</v>
@@ -9096,7 +9106,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>56</v>
@@ -9140,13 +9150,13 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -9173,7 +9183,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>415</v>
@@ -9184,7 +9194,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>495</v>
@@ -9195,7 +9205,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>449</v>
@@ -9206,24 +9216,24 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -9239,18 +9249,18 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>273</v>
@@ -9261,62 +9271,62 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>198</v>
@@ -9327,7 +9337,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>436</v>
@@ -9338,18 +9348,18 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>160</v>
@@ -9360,7 +9370,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>404</v>
@@ -9382,13 +9392,13 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -9415,7 +9425,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>118</v>
@@ -9426,7 +9436,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>140</v>
@@ -9437,7 +9447,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>153</v>
@@ -9448,7 +9458,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>132</v>
@@ -9481,7 +9491,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>142</v>
@@ -9492,7 +9502,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>149</v>
@@ -9525,7 +9535,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>109</v>
@@ -9547,7 +9557,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>112</v>
@@ -9569,13 +9579,13 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -9591,7 +9601,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>146</v>
@@ -9657,7 +9667,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>107</v>
@@ -9723,7 +9733,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>105</v>
@@ -9734,7 +9744,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>452</v>
@@ -9778,18 +9788,18 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>183</v>
@@ -9800,7 +9810,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>206</v>
@@ -9899,7 +9909,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>203</v>
@@ -9921,7 +9931,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>194</v>
@@ -9965,7 +9975,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>229</v>
@@ -10009,7 +10019,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>190</v>
@@ -10031,7 +10041,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>211</v>
@@ -10042,7 +10052,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>187</v>
@@ -10075,7 +10085,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>240</v>
@@ -10097,7 +10107,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>224</v>
@@ -10152,7 +10162,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>219</v>
@@ -10163,13 +10173,13 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -10207,7 +10217,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>264</v>
@@ -10240,7 +10250,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>280</v>
@@ -10306,7 +10316,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>259</v>
@@ -10317,13 +10327,13 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -10339,7 +10349,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>305</v>
@@ -10350,7 +10360,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>291</v>
@@ -10603,7 +10613,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>288</v>
@@ -10625,18 +10635,18 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>352</v>
@@ -10647,7 +10657,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>340</v>
@@ -10746,7 +10756,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>361</v>
@@ -10812,7 +10822,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>328</v>
@@ -10867,7 +10877,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>325</v>
@@ -10911,13 +10921,13 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -10933,7 +10943,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>395</v>
@@ -10944,7 +10954,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>402</v>
@@ -10955,18 +10965,18 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>391</v>
@@ -10999,7 +11009,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>427</v>
@@ -11010,7 +11020,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>391</v>
@@ -11054,7 +11064,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>368</v>
@@ -11076,7 +11086,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>381</v>
@@ -11131,7 +11141,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>417</v>
@@ -11142,7 +11152,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>424</v>
@@ -11175,13 +11185,13 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -11197,40 +11207,40 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>440</v>
@@ -11241,7 +11251,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>421</v>
@@ -11263,7 +11273,7 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>521</v>
@@ -11274,18 +11284,18 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>455</v>
@@ -11296,18 +11306,18 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>695</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>311</v>
@@ -11318,18 +11328,18 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>530</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>524</v>
@@ -11340,7 +11350,7 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>440</v>
@@ -11351,29 +11361,29 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>8</v>
@@ -11384,7 +11394,7 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>499</v>
@@ -11395,7 +11405,7 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>474</v>
@@ -11406,7 +11416,7 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>471</v>
@@ -11417,7 +11427,7 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>518</v>
@@ -11428,7 +11438,7 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>504</v>
@@ -11439,7 +11449,7 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>462</v>
@@ -11450,7 +11460,7 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>486</v>
@@ -11472,18 +11482,18 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>459</v>
@@ -11494,18 +11504,18 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>442</v>
@@ -11527,7 +11537,7 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>81</v>
@@ -11538,7 +11548,7 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>118</v>
@@ -11549,7 +11559,7 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>484</v>
@@ -11560,7 +11570,7 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>539</v>
@@ -11582,7 +11592,7 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>526</v>
@@ -11593,7 +11603,7 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>507</v>
@@ -11604,18 +11614,18 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>516</v>
@@ -11626,7 +11636,7 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>534</v>
@@ -11637,18 +11647,18 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>498</v>
@@ -11659,40 +11669,40 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B274" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C274" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>140</v>
@@ -11703,7 +11713,7 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>480</v>
@@ -11714,7 +11724,7 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>445</v>
@@ -11725,18 +11735,18 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>233</v>
@@ -11747,7 +11757,7 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>511</v>
@@ -11758,29 +11768,29 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>330</v>
@@ -11791,7 +11801,7 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>528</v>
@@ -11802,18 +11812,18 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>421</v>
@@ -11824,7 +11834,7 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>482</v>
@@ -11835,18 +11845,18 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>262</v>
@@ -11890,7 +11900,7 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>543</v>
@@ -11912,7 +11922,7 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>543</v>
@@ -11923,7 +11933,7 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>543</v>
@@ -11934,7 +11944,7 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>543</v>
@@ -11945,7 +11955,7 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>543</v>
@@ -11956,7 +11966,7 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>543</v>
@@ -11967,7 +11977,7 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>543</v>
@@ -11978,7 +11988,7 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>543</v>
@@ -11989,7 +11999,7 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>543</v>
@@ -12011,7 +12021,7 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>543</v>
@@ -12022,7 +12032,7 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>543</v>
@@ -12033,7 +12043,7 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>543</v>
@@ -12044,7 +12054,7 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>543</v>
@@ -12055,7 +12065,7 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>543</v>
@@ -12066,7 +12076,7 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>543</v>
@@ -12077,7 +12087,7 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>543</v>
@@ -12088,7 +12098,7 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>543</v>
@@ -12099,7 +12109,7 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>543</v>
@@ -12110,7 +12120,7 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>543</v>
@@ -12121,7 +12131,7 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>543</v>
@@ -12132,7 +12142,7 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>543</v>
@@ -12143,7 +12153,7 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>543</v>
@@ -12154,7 +12164,7 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>543</v>
@@ -12165,7 +12175,7 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>543</v>
@@ -12176,7 +12186,7 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>543</v>
@@ -12187,7 +12197,7 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>543</v>
@@ -12198,7 +12208,7 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>543</v>
@@ -12209,7 +12219,7 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>543</v>
@@ -12220,7 +12230,7 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>543</v>
@@ -12231,7 +12241,7 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>543</v>
@@ -12242,7 +12252,7 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>543</v>
@@ -12253,7 +12263,7 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>543</v>
@@ -12264,7 +12274,7 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>543</v>
@@ -12275,7 +12285,7 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>543</v>
@@ -12286,7 +12296,7 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>543</v>
@@ -12297,7 +12307,7 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>543</v>
@@ -12308,7 +12318,7 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>543</v>
@@ -12319,7 +12329,7 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>543</v>
@@ -12343,7 +12353,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -12372,24 +12382,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -12405,178 +12415,178 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>806</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>810</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>812</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>814</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>818</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>823</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>826</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>828</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -12592,123 +12602,123 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>832</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>839</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>841</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>843</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>846</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>848</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>850</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -12724,79 +12734,79 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>852</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>855</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>858</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>860</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>862</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -12812,13 +12822,13 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -12845,24 +12855,24 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>865</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>867</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -12878,13 +12888,13 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>869</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -12911,68 +12921,68 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>876</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -12988,40 +12998,40 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>880</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>187</v>
@@ -13032,35 +13042,35 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>544</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -13076,24 +13086,24 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>886</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>888</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -13109,13 +13119,13 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>890</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -13131,200 +13141,200 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>892</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>894</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>898</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>906</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>910</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>912</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>917</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -13340,13 +13350,13 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -13362,18 +13372,18 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>511</v>
@@ -13384,35 +13394,35 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>922</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -13428,13 +13438,13 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -13450,13 +13460,13 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -13505,57 +13515,57 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>928</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>930</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -13571,24 +13581,24 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>935</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>937</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -13615,79 +13625,79 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>939</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>941</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>943</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>945</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>948</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -13714,13 +13724,13 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>951</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -13736,13 +13746,13 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>953</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -13802,13 +13812,13 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>955</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -13846,46 +13856,46 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>959</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>961</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -13901,178 +13911,178 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>964</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>968</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>970</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>974</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>976</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>978</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>982</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>984</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -14088,90 +14098,90 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>990</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>993</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>996</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -14187,13 +14197,13 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>998</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -14209,57 +14219,57 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>1000</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>1002</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>1006</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -14275,24 +14285,24 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>1010</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -14308,134 +14318,134 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>1012</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>1017</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B185" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>1021</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>1026</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>1028</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -14462,13 +14472,13 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>1030</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -14495,13 +14505,13 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -14517,24 +14527,24 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -14550,57 +14560,57 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>1035</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -14616,35 +14626,35 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>1041</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -14660,57 +14670,57 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B211" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>1047</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>1049</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>1051</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>1054</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -14726,57 +14736,57 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>1057</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>1060</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>1062</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -14792,123 +14802,123 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>1064</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>1067</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>1069</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>1074</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>1078</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -14924,35 +14934,35 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>1081</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -14968,13 +14978,13 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -15001,7 +15011,7 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>294</v>
@@ -15023,18 +15033,18 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>1087</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>311</v>
@@ -15067,13 +15077,13 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>1090</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -15089,79 +15099,79 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B252" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C252" s="1" t="s">
         <v>1094</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B254" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>1097</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>1099</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>1101</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -15188,7 +15198,7 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>361</v>
@@ -15199,106 +15209,106 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>1103</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>1111</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B268" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>1113</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>352</v>
@@ -15309,57 +15319,57 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B272" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>1117</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -15375,35 +15385,35 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B276" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>1121</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="1" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B277" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C277" s="1" t="s">
         <v>1123</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -15419,13 +15429,13 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B280" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>1126</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -15441,46 +15451,46 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B283" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>1129</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B284" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>1131</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C285" s="1" t="s">
         <v>1133</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -15507,24 +15517,24 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -15540,57 +15550,57 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B291" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C291" s="1" t="s">
         <v>1141</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B292" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C292" s="1" t="s">
         <v>1143</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B294" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C294" s="1" t="s">
         <v>1146</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B295" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C295" s="1" t="s">
         <v>1148</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -15628,145 +15638,145 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="1" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B300" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C300" s="1" t="s">
         <v>1151</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="1" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B302" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C302" s="1" t="s">
         <v>1154</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B304" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C304" s="1" t="s">
         <v>1157</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B306" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C306" s="1" t="s">
         <v>1160</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B307" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C307" s="1" t="s">
         <v>1162</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B309" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C309" s="1" t="s">
         <v>1165</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B311" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C311" s="1" t="s">
         <v>1168</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -15782,13 +15792,13 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B313" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C313" s="1" t="s">
         <v>1170</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -15826,13 +15836,13 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B317" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C317" s="1" t="s">
         <v>1172</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -15859,46 +15869,46 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B320" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C320" s="1" t="s">
         <v>1174</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B321" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C321" s="1" t="s">
         <v>1176</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B323" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>1179</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -15914,90 +15924,90 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B327" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C327" s="1" t="s">
         <v>1183</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B329" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C329" s="1" t="s">
         <v>1186</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C330" s="1" t="s">
         <v>1188</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C332" s="1" t="s">
         <v>1191</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -16013,68 +16023,68 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B335" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C335" s="1" t="s">
         <v>1194</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B336" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C336" s="1" t="s">
         <v>1196</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B337" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C337" s="1" t="s">
         <v>1198</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B338" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C338" s="1" t="s">
         <v>1200</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -16090,101 +16100,101 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B343" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C343" s="1" t="s">
         <v>1205</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -16200,13 +16210,13 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>509</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -16222,387 +16232,387 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B354" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C354" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B357" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C357" s="1" t="s">
         <v>1221</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B359" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C359" s="1" t="s">
         <v>1224</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>1223</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B361" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C361" s="1" t="s">
         <v>1227</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="1" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B363" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C363" s="1" t="s">
         <v>1230</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B364" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C364" s="1" t="s">
         <v>1232</v>
-      </c>
-      <c r="C364" s="1" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B365" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C365" s="1" t="s">
         <v>1234</v>
-      </c>
-      <c r="C365" s="1" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="1" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B367" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C367" s="1" t="s">
         <v>1237</v>
-      </c>
-      <c r="C367" s="1" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B368" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B368" s="1" t="s">
-        <v>704</v>
-      </c>
       <c r="C368" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="1" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B370" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C370" s="1" t="s">
         <v>1240</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="1" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B373" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C373" s="1" t="s">
         <v>1244</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="1" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B376" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C376" s="1" t="s">
         <v>1248</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="1" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B377" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C377" s="1" t="s">
         <v>1250</v>
-      </c>
-      <c r="C377" s="1" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="1" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="1" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B379" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C379" s="1" t="s">
         <v>1253</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="1" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B380" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C380" s="1" t="s">
         <v>1255</v>
-      </c>
-      <c r="C380" s="1" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="1" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B381" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C381" s="1" t="s">
         <v>1257</v>
-      </c>
-      <c r="C381" s="1" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="1" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B382" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C382" s="1" t="s">
         <v>1259</v>
-      </c>
-      <c r="C382" s="1" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="1" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B383" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C383" s="1" t="s">
         <v>1261</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="1" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B384" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C384" s="1" t="s">
         <v>1263</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="1" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B385" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C385" s="1" t="s">
         <v>1265</v>
-      </c>
-      <c r="C385" s="1" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="1" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B387" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C387" s="1" t="s">
         <v>1267</v>
-      </c>
-      <c r="C387" s="1" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -16618,40 +16628,40 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="1" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B389" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C389" s="1" t="s">
         <v>1269</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="1" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="1" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="1" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>543</v>
@@ -16662,7 +16672,7 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="1" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>543</v>
@@ -16673,7 +16683,7 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>543</v>
@@ -16684,7 +16694,7 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>543</v>
@@ -16695,7 +16705,7 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>543</v>
@@ -16716,10 +16726,10 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -16759,13 +16769,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -16792,7 +16802,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>198</v>
@@ -16803,13 +16813,13 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -16847,24 +16857,24 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>1281</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -16891,7 +16901,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>149</v>
@@ -16905,26 +16915,26 @@
         <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>1285</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>296</v>
@@ -16946,13 +16956,13 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>1287</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -16968,13 +16978,13 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -16990,13 +17000,13 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>1290</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -17012,13 +17022,13 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -17034,13 +17044,13 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -17056,24 +17066,24 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>1294</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -17089,18 +17099,18 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>1296</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>294</v>
@@ -17111,24 +17121,24 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>1299</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -17144,7 +17154,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>311</v>
@@ -17166,24 +17176,24 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>1301</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>1303</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -17199,13 +17209,13 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -17221,18 +17231,18 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>245</v>
@@ -17243,29 +17253,29 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>1307</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>328</v>
@@ -17276,13 +17286,13 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -17298,7 +17308,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>543</v>
@@ -17309,7 +17319,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>543</v>
@@ -17320,7 +17330,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>543</v>
@@ -17338,13 +17348,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D260"/>
+  <dimension ref="A1:D261"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="B266" sqref="B266"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -17384,7 +17394,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>64</v>
@@ -17439,7 +17449,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>56</v>
@@ -17472,7 +17482,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>61</v>
@@ -17494,7 +17504,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>37</v>
@@ -17516,7 +17526,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>44</v>
@@ -17527,7 +17537,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>78</v>
@@ -17571,24 +17581,24 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>566</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>565</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -17626,13 +17636,13 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -17769,7 +17779,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>29</v>
@@ -17802,7 +17812,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>16</v>
@@ -17879,7 +17889,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>16</v>
@@ -17923,7 +17933,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>146</v>
@@ -17989,7 +17999,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>452</v>
@@ -18011,7 +18021,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>109</v>
@@ -18066,7 +18076,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>153</v>
@@ -18121,13 +18131,13 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>1326</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -18198,7 +18208,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>105</v>
@@ -18242,7 +18252,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>142</v>
@@ -18264,7 +18274,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>158</v>
@@ -18275,7 +18285,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>149</v>
@@ -18286,7 +18296,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>132</v>
@@ -18297,7 +18307,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>107</v>
@@ -18330,7 +18340,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>140</v>
@@ -18352,7 +18362,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>118</v>
@@ -18363,7 +18373,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>112</v>
@@ -18440,7 +18450,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>211</v>
@@ -18462,7 +18472,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>224</v>
@@ -18528,7 +18538,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>198</v>
@@ -18539,7 +18549,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>229</v>
@@ -18561,7 +18571,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>190</v>
@@ -18583,7 +18593,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>194</v>
@@ -18605,7 +18615,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>240</v>
@@ -18638,7 +18648,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>203</v>
@@ -18671,7 +18681,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>501</v>
@@ -18759,7 +18769,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>183</v>
@@ -18803,7 +18813,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>259</v>
@@ -18847,13 +18857,13 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -18869,7 +18879,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>449</v>
@@ -18913,13 +18923,13 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>1334</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -18957,7 +18967,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>280</v>
@@ -19133,7 +19143,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>311</v>
@@ -19188,24 +19198,24 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -19276,7 +19286,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>305</v>
@@ -19298,7 +19308,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>291</v>
@@ -19331,7 +19341,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>325</v>
@@ -19397,7 +19407,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>340</v>
@@ -19430,7 +19440,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>352</v>
@@ -19529,7 +19539,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>328</v>
@@ -19551,7 +19561,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>361</v>
@@ -19595,7 +19605,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>368</v>
@@ -19606,7 +19616,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>391</v>
@@ -19617,7 +19627,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>424</v>
@@ -19683,7 +19693,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>381</v>
@@ -19716,7 +19726,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>395</v>
@@ -19727,7 +19737,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>378</v>
@@ -19738,7 +19748,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>417</v>
@@ -19760,7 +19770,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>206</v>
@@ -19859,7 +19869,7 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>132</v>
@@ -19881,7 +19891,7 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>495</v>
@@ -19936,7 +19946,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>402</v>
@@ -19983,15 +19993,15 @@
         <v>6</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>103</v>
@@ -20035,7 +20045,7 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>543</v>
@@ -20046,7 +20056,7 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>543</v>
@@ -20057,7 +20067,7 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>543</v>
@@ -20068,7 +20078,7 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>543</v>
@@ -20079,7 +20089,7 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>543</v>
@@ -20090,7 +20100,7 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>543</v>
@@ -20123,7 +20133,7 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>543</v>
@@ -20134,7 +20144,7 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>543</v>
@@ -20156,7 +20166,7 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>543</v>
@@ -20167,7 +20177,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>543</v>
@@ -20178,7 +20188,7 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>543</v>
@@ -20189,7 +20199,7 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>543</v>
@@ -20207,6 +20217,17 @@
       </c>
       <c r="C260" s="1" t="s">
         <v>543</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/javsdt/【特征对照表】.xlsx
+++ b/javsdt/【特征对照表】.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4121" uniqueCount="1354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4124" uniqueCount="1354">
   <si>
     <t>原简体特征</t>
   </si>
@@ -4088,9 +4088,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -4102,35 +4102,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4138,32 +4109,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4199,9 +4147,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4223,25 +4229,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4254,7 +4254,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4266,31 +4362,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4302,37 +4410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4350,91 +4428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4445,6 +4445,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4472,6 +4492,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4482,6 +4511,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -4501,60 +4545,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4563,133 +4563,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5050,7 +5050,7 @@
   <dimension ref="A1:D326"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="A326" sqref="A326"/>
+      <selection activeCell="M325" sqref="M325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8634,7 +8634,7 @@
       </c>
     </row>
     <row r="326" spans="1:3">
-      <c r="A326" s="2" t="s">
+      <c r="A326" s="1" t="s">
         <v>571</v>
       </c>
       <c r="B326" s="1" t="s">
@@ -17348,10 +17348,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D261"/>
+  <dimension ref="A1:D262"/>
   <sheetViews>
     <sheetView topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="B266" sqref="B266"/>
+      <selection activeCell="G267" sqref="G267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -20230,6 +20230,17 @@
         <v>269</v>
       </c>
     </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
